--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_master.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_master.xlsx
@@ -1733,10 +1733,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1818,7 +1817,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1827,12 +1826,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1855,49 +1858,48 @@
   <dimension ref="A1:L197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L:L L1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L:L"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1905,7645 +1907,7645 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10016</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10017</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10018</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>10019</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="L20" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>10020</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="L21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>10021</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="L22" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>10022</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>10023</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="4" t="s">
         <v>155</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L24" s="2" t="n">
+      <c r="L24" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>10024</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>10025</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>10026</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>10027</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>10028</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="4" t="s">
         <v>185</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>10029</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="L30" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>10030</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>10031</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="4" t="s">
         <v>203</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>10032</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="4" t="s">
         <v>209</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>10033</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="4" t="s">
         <v>215</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>10034</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="4" t="s">
         <v>221</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>10035</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="4" t="s">
         <v>227</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="L36" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>10036</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="4" t="s">
         <v>233</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>10037</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>10038</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>10039</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="L40" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>10040</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L41" s="2" t="n">
+      <c r="L41" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>10041</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="4" t="s">
         <v>263</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="L42" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>10042</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="4" t="s">
         <v>269</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>10043</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="4" t="s">
         <v>275</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="L44" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>10044</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="4" t="s">
         <v>281</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L45" s="2" t="n">
+      <c r="L45" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>10045</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="L46" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>10046</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="4" t="s">
         <v>293</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="L47" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>10047</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="4" t="s">
         <v>299</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="L48" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>10048</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="J49" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K49" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>10049</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="4" t="s">
         <v>311</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="J50" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>10050</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="4" t="s">
         <v>317</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L51" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>10051</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="4" t="s">
         <v>323</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="L52" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>10052</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>10053</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="4" t="s">
         <v>335</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L54" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>10054</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L55" s="2" t="n">
+      <c r="L55" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>10055</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="4" t="s">
         <v>347</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="J56" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L56" s="2" t="n">
+      <c r="L56" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>10056</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="4" t="s">
         <v>353</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="J57" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>10057</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="4" t="s">
         <v>358</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="J58" s="0" t="s">
+      <c r="J58" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L58" s="2" t="n">
+      <c r="L58" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>10058</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="4" t="s">
         <v>364</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="J59" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K59" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L59" s="2" t="n">
+      <c r="L59" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>10059</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="4" t="s">
         <v>369</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="J60" s="0" t="s">
+      <c r="J60" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="L60" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>10060</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="4" t="s">
         <v>374</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="J61" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L61" s="2" t="n">
+      <c r="L61" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>10061</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="4" t="s">
         <v>379</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="J62" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L62" s="2" t="n">
+      <c r="L62" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>10062</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="4" t="s">
         <v>383</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>10063</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="4" t="s">
         <v>388</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="J64" s="0" t="s">
+      <c r="J64" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L64" s="2" t="n">
+      <c r="L64" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>10064</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="4" t="s">
         <v>393</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="J65" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L65" s="2" t="n">
+      <c r="L65" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>10065</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="4" t="s">
         <v>398</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I66" s="0" t="s">
+      <c r="I66" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="J66" s="0" t="s">
+      <c r="J66" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>10066</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="4" t="s">
         <v>403</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="H67" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="I67" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="J67" s="0" t="s">
+      <c r="J67" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L67" s="2" t="n">
+      <c r="L67" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>10067</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="4" t="s">
         <v>408</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="H68" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="I68" s="0" t="s">
+      <c r="I68" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="J68" s="0" t="s">
+      <c r="J68" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L68" s="2" t="n">
+      <c r="L68" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>10068</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="4" t="s">
         <v>413</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="I69" s="0" t="s">
+      <c r="I69" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="J69" s="0" t="s">
+      <c r="J69" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L69" s="2" t="n">
+      <c r="L69" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>10069</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="4" t="s">
         <v>418</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="H70" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="I70" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="J70" s="0" t="s">
+      <c r="J70" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L70" s="2" t="n">
+      <c r="L70" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>10070</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="4" t="s">
         <v>423</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="I71" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J71" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L71" s="2" t="n">
+      <c r="L71" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>10071</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="4" t="s">
         <v>428</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="I72" s="0" t="s">
+      <c r="I72" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="J72" s="0" t="s">
+      <c r="J72" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L72" s="2" t="n">
+      <c r="L72" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>10072</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="4" t="s">
         <v>433</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="H73" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="I73" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="J73" s="0" t="s">
+      <c r="J73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K73" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L73" s="2" t="n">
+      <c r="L73" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>10073</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="I74" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="J74" s="0" t="s">
+      <c r="J74" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K74" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L74" s="2" t="n">
+      <c r="L74" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>10074</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="I75" s="0" t="s">
+      <c r="I75" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="J75" s="0" t="s">
+      <c r="J75" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K75" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L75" s="2" t="n">
+      <c r="L75" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>10075</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="4" t="s">
         <v>448</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H76" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="I76" s="0" t="s">
+      <c r="I76" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J76" s="0" t="s">
+      <c r="J76" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L76" s="2" t="n">
+      <c r="L76" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>10076</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="4" t="s">
         <v>453</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="I77" s="0" t="s">
+      <c r="I77" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="J77" s="0" t="s">
+      <c r="J77" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L77" s="2" t="n">
+      <c r="L77" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>10077</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="4" t="s">
         <v>458</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="H78" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="I78" s="0" t="s">
+      <c r="I78" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="J78" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L78" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>10078</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="4" t="s">
         <v>463</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="I79" s="0" t="s">
+      <c r="I79" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="J79" s="0" t="s">
+      <c r="J79" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L79" s="2" t="n">
+      <c r="L79" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>10079</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="4" t="s">
         <v>468</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H80" s="0" t="s">
+      <c r="H80" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="I80" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="J80" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>33333</v>
       </c>
-      <c r="L80" s="2" t="n">
+      <c r="L80" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>10080</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="4" t="s">
         <v>473</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="H81" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="I81" s="0" t="s">
+      <c r="I81" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="J81" s="0" t="s">
+      <c r="J81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L81" s="2" t="n">
+      <c r="L81" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>10081</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="4" t="s">
         <v>478</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H82" s="0" t="s">
+      <c r="H82" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="I82" s="0" t="s">
+      <c r="I82" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="J82" s="0" t="s">
+      <c r="J82" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K82" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L82" s="2" t="n">
+      <c r="L82" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>10082</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="4" t="s">
         <v>483</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="H83" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="I83" s="0" t="s">
+      <c r="I83" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="J83" s="0" t="s">
+      <c r="J83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L83" s="2" t="n">
+      <c r="L83" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>10083</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="4" t="s">
         <v>488</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H84" s="0" t="s">
+      <c r="H84" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="I84" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="J84" s="0" t="s">
+      <c r="J84" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K84" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L84" s="2" t="n">
+      <c r="L84" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>10084</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" s="4" t="s">
         <v>492</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="H85" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="I85" s="0" t="s">
+      <c r="I85" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="J85" s="0" t="s">
+      <c r="J85" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L85" s="2" t="n">
+      <c r="L85" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>10085</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="4" t="s">
         <v>497</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H86" s="0" t="s">
+      <c r="H86" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="I86" s="0" t="s">
+      <c r="I86" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="J86" s="0" t="s">
+      <c r="J86" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L86" s="2" t="n">
+      <c r="L86" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>10086</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" s="4" t="s">
         <v>502</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H87" s="0" t="s">
+      <c r="H87" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="I87" s="0" t="s">
+      <c r="I87" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="J87" s="0" t="s">
+      <c r="J87" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L87" s="2" t="n">
+      <c r="L87" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>10087</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="4" t="s">
         <v>507</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H88" s="0" t="s">
+      <c r="H88" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="I88" s="0" t="s">
+      <c r="I88" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="J88" s="0" t="s">
+      <c r="J88" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L88" s="2" t="n">
+      <c r="L88" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>10088</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="4" t="s">
         <v>512</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H89" s="0" t="s">
+      <c r="H89" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="I89" s="0" t="s">
+      <c r="I89" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="J89" s="0" t="s">
+      <c r="J89" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L89" s="2" t="n">
+      <c r="L89" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>10089</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="4" t="s">
         <v>517</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H90" s="0" t="s">
+      <c r="H90" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="I90" s="0" t="s">
+      <c r="I90" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="J90" s="0" t="s">
+      <c r="J90" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L90" s="2" t="n">
+      <c r="L90" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>10090</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="4" t="s">
         <v>522</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H91" s="0" t="s">
+      <c r="H91" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="I91" s="0" t="s">
+      <c r="I91" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="J91" s="0" t="s">
+      <c r="J91" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L91" s="2" t="n">
+      <c r="L91" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>10091</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="4" t="s">
         <v>527</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H92" s="0" t="s">
+      <c r="H92" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="I92" s="0" t="s">
+      <c r="I92" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="J92" s="0" t="s">
+      <c r="J92" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K92" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L92" s="2" t="n">
+      <c r="L92" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>10092</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="4" t="s">
         <v>532</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="H93" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="I93" s="0" t="s">
+      <c r="I93" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="J93" s="0" t="s">
+      <c r="J93" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K93" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L93" s="2" t="n">
+      <c r="L93" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>10093</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="4" t="s">
         <v>537</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="H94" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="I94" s="0" t="s">
+      <c r="I94" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="J94" s="0" t="s">
+      <c r="J94" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K94" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L94" s="2" t="n">
+      <c r="L94" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>10094</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="4" t="s">
         <v>542</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="H95" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="I95" s="0" t="s">
+      <c r="I95" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="J95" s="0" t="s">
+      <c r="J95" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K95" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L95" s="2" t="n">
+      <c r="L95" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>10095</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="4" t="s">
         <v>547</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H96" s="0" t="s">
+      <c r="H96" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="I96" s="0" t="s">
+      <c r="I96" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="J96" s="0" t="s">
+      <c r="J96" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K96" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L96" s="2" t="n">
+      <c r="L96" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>10096</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="4" t="s">
         <v>552</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="H97" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="I97" s="0" t="s">
+      <c r="I97" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="J97" s="0" t="s">
+      <c r="J97" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K97" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L97" s="2" t="n">
+      <c r="L97" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>10097</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="4" t="s">
         <v>557</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H98" s="0" t="s">
+      <c r="H98" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="I98" s="0" t="s">
+      <c r="I98" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="J98" s="0" t="s">
+      <c r="J98" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K98" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L98" s="2" t="n">
+      <c r="L98" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>10098</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="4" t="s">
         <v>562</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="H99" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="I99" s="0" t="s">
+      <c r="I99" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="J99" s="0" t="s">
+      <c r="J99" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K99" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L99" s="2" t="n">
+      <c r="L99" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H100" s="0" t="s">
+      <c r="H100" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I100" s="0" t="s">
+      <c r="I100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="0" t="s">
+      <c r="J100" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K100" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L100" s="2" t="n">
+      <c r="L100" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H101" s="0" t="s">
+      <c r="H101" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I101" s="0" t="s">
+      <c r="I101" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J101" s="0" t="s">
+      <c r="J101" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K101" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L101" s="2" t="n">
+      <c r="L101" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H102" s="0" t="s">
+      <c r="H102" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I102" s="0" t="s">
+      <c r="I102" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J102" s="0" t="s">
+      <c r="J102" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K102" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L102" s="2" t="n">
+      <c r="L102" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H103" s="0" t="s">
+      <c r="H103" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I103" s="0" t="s">
+      <c r="I103" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J103" s="0" t="s">
+      <c r="J103" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K103" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L103" s="2" t="n">
+      <c r="L103" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H104" s="0" t="s">
+      <c r="H104" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I104" s="0" t="s">
+      <c r="I104" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J104" s="0" t="s">
+      <c r="J104" s="4" t="s">
         <v>45</v>
       </c>
       <c r="K104" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="L104" s="2" t="n">
+      <c r="L104" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H105" s="0" t="s">
+      <c r="H105" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I105" s="0" t="s">
+      <c r="I105" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J105" s="0" t="s">
+      <c r="J105" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K105" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L105" s="2" t="n">
+      <c r="L105" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H106" s="0" t="s">
+      <c r="H106" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I106" s="0" t="s">
+      <c r="I106" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J106" s="0" t="s">
+      <c r="J106" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K106" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L106" s="2" t="n">
+      <c r="L106" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="H107" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I107" s="0" t="s">
+      <c r="I107" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J107" s="0" t="s">
+      <c r="J107" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K107" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L107" s="2" t="n">
+      <c r="L107" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="H108" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I108" s="0" t="s">
+      <c r="I108" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J108" s="0" t="s">
+      <c r="J108" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K108" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L108" s="2" t="n">
+      <c r="L108" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H109" s="0" t="s">
+      <c r="H109" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I109" s="0" t="s">
+      <c r="I109" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J109" s="0" t="s">
+      <c r="J109" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K109" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L109" s="2" t="n">
+      <c r="L109" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H110" s="0" t="s">
+      <c r="H110" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I110" s="0" t="s">
+      <c r="I110" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J110" s="0" t="s">
+      <c r="J110" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K110" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L110" s="2" t="n">
+      <c r="L110" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H111" s="0" t="s">
+      <c r="H111" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I111" s="0" t="s">
+      <c r="I111" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J111" s="0" t="s">
+      <c r="J111" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K111" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L111" s="2" t="n">
+      <c r="L111" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H112" s="0" t="s">
+      <c r="H112" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I112" s="0" t="s">
+      <c r="I112" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J112" s="0" t="s">
+      <c r="J112" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K112" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L112" s="2" t="n">
+      <c r="L112" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H113" s="0" t="s">
+      <c r="H113" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I113" s="0" t="s">
+      <c r="I113" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J113" s="0" t="s">
+      <c r="J113" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K113" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L113" s="2" t="n">
+      <c r="L113" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H114" s="0" t="s">
+      <c r="H114" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I114" s="0" t="s">
+      <c r="I114" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J114" s="0" t="s">
+      <c r="J114" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K114" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L114" s="2" t="n">
+      <c r="L114" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>10016</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="H115" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I115" s="0" t="s">
+      <c r="I115" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J115" s="0" t="s">
+      <c r="J115" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K115" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L115" s="2" t="n">
+      <c r="L115" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>10017</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H116" s="0" t="s">
+      <c r="H116" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I116" s="0" t="s">
+      <c r="I116" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J116" s="0" t="s">
+      <c r="J116" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K116" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L116" s="2" t="n">
+      <c r="L116" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>10018</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H117" s="0" t="s">
+      <c r="H117" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I117" s="0" t="s">
+      <c r="I117" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J117" s="0" t="s">
+      <c r="J117" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K117" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L117" s="2" t="n">
+      <c r="L117" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>10019</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H118" s="0" t="s">
+      <c r="H118" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I118" s="0" t="s">
+      <c r="I118" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J118" s="0" t="s">
+      <c r="J118" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K118" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L118" s="2" t="n">
+      <c r="L118" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>10020</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="H119" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I119" s="0" t="s">
+      <c r="I119" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J119" s="0" t="s">
+      <c r="J119" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K119" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L119" s="2" t="n">
+      <c r="L119" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>10021</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H120" s="0" t="s">
+      <c r="H120" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I120" s="0" t="s">
+      <c r="I120" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J120" s="0" t="s">
+      <c r="J120" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K120" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L120" s="2" t="n">
+      <c r="L120" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>10022</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H121" s="0" t="s">
+      <c r="H121" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I121" s="0" t="s">
+      <c r="I121" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J121" s="0" t="s">
+      <c r="J121" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K121" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L121" s="2" t="n">
+      <c r="L121" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>10023</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="4" t="s">
         <v>155</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H122" s="0" t="s">
+      <c r="H122" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I122" s="0" t="s">
+      <c r="I122" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J122" s="0" t="s">
+      <c r="J122" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K122" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L122" s="2" t="n">
+      <c r="L122" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>10024</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H123" s="0" t="s">
+      <c r="H123" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I123" s="0" t="s">
+      <c r="I123" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J123" s="0" t="s">
+      <c r="J123" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K123" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L123" s="2" t="n">
+      <c r="L123" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>10025</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H124" s="0" t="s">
+      <c r="H124" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I124" s="0" t="s">
+      <c r="I124" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J124" s="0" t="s">
+      <c r="J124" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K124" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L124" s="2" t="n">
+      <c r="L124" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>10026</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F125" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H125" s="0" t="s">
+      <c r="H125" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I125" s="0" t="s">
+      <c r="I125" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J125" s="0" t="s">
+      <c r="J125" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K125" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L125" s="2" t="n">
+      <c r="L125" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>10027</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H126" s="0" t="s">
+      <c r="H126" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I126" s="0" t="s">
+      <c r="I126" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J126" s="0" t="s">
+      <c r="J126" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K126" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L126" s="2" t="n">
+      <c r="L126" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>10028</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" s="4" t="s">
         <v>185</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H127" s="0" t="s">
+      <c r="H127" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I127" s="0" t="s">
+      <c r="I127" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J127" s="0" t="s">
+      <c r="J127" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K127" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L127" s="2" t="n">
+      <c r="L127" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>10029</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H128" s="0" t="s">
+      <c r="H128" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I128" s="0" t="s">
+      <c r="I128" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J128" s="0" t="s">
+      <c r="J128" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K128" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L128" s="2" t="n">
+      <c r="L128" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>10030</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H129" s="0" t="s">
+      <c r="H129" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I129" s="0" t="s">
+      <c r="I129" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J129" s="0" t="s">
+      <c r="J129" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K129" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L129" s="2" t="n">
+      <c r="L129" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>10031</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F130" s="0" t="s">
+      <c r="F130" s="4" t="s">
         <v>203</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H130" s="0" t="s">
+      <c r="H130" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I130" s="0" t="s">
+      <c r="I130" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J130" s="0" t="s">
+      <c r="J130" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K130" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L130" s="2" t="n">
+      <c r="L130" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>10032</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F131" s="4" t="s">
         <v>209</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H131" s="0" t="s">
+      <c r="H131" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I131" s="0" t="s">
+      <c r="I131" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J131" s="0" t="s">
+      <c r="J131" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K131" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L131" s="2" t="n">
+      <c r="L131" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>10033</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F132" s="4" t="s">
         <v>215</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H132" s="0" t="s">
+      <c r="H132" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I132" s="0" t="s">
+      <c r="I132" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J132" s="0" t="s">
+      <c r="J132" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K132" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L132" s="2" t="n">
+      <c r="L132" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>10034</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F133" s="4" t="s">
         <v>221</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H133" s="0" t="s">
+      <c r="H133" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I133" s="0" t="s">
+      <c r="I133" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J133" s="0" t="s">
+      <c r="J133" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K133" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L133" s="2" t="n">
+      <c r="L133" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>10035</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" s="4" t="s">
         <v>227</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H134" s="0" t="s">
+      <c r="H134" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I134" s="0" t="s">
+      <c r="I134" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J134" s="0" t="s">
+      <c r="J134" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K134" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L134" s="2" t="n">
+      <c r="L134" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>10036</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F135" s="4" t="s">
         <v>233</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H135" s="0" t="s">
+      <c r="H135" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I135" s="0" t="s">
+      <c r="I135" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J135" s="0" t="s">
+      <c r="J135" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K135" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L135" s="2" t="n">
+      <c r="L135" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>10037</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F136" s="0" t="s">
+      <c r="F136" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H136" s="0" t="s">
+      <c r="H136" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I136" s="0" t="s">
+      <c r="I136" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J136" s="0" t="s">
+      <c r="J136" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K136" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L136" s="2" t="n">
+      <c r="L136" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>10038</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F137" s="0" t="s">
+      <c r="F137" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H137" s="0" t="s">
+      <c r="H137" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I137" s="0" t="s">
+      <c r="I137" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J137" s="0" t="s">
+      <c r="J137" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K137" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L137" s="2" t="n">
+      <c r="L137" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>10039</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H138" s="0" t="s">
+      <c r="H138" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I138" s="0" t="s">
+      <c r="I138" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="J138" s="0" t="s">
+      <c r="J138" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K138" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L138" s="2" t="n">
+      <c r="L138" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>10040</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F139" s="0" t="s">
+      <c r="F139" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H139" s="0" t="s">
+      <c r="H139" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="I139" s="0" t="s">
+      <c r="I139" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J139" s="0" t="s">
+      <c r="J139" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K139" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L139" s="2" t="n">
+      <c r="L139" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>10041</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" s="4" t="s">
         <v>263</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H140" s="0" t="s">
+      <c r="H140" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="I140" s="0" t="s">
+      <c r="I140" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J140" s="0" t="s">
+      <c r="J140" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K140" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L140" s="2" t="n">
+      <c r="L140" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>10042</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F141" s="4" t="s">
         <v>269</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H141" s="0" t="s">
+      <c r="H141" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I141" s="0" t="s">
+      <c r="I141" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J141" s="0" t="s">
+      <c r="J141" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K141" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L141" s="2" t="n">
+      <c r="L141" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>10043</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" s="4" t="s">
         <v>275</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H142" s="0" t="s">
+      <c r="H142" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="I142" s="0" t="s">
+      <c r="I142" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J142" s="0" t="s">
+      <c r="J142" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K142" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L142" s="2" t="n">
+      <c r="L142" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>10044</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F143" s="4" t="s">
         <v>281</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H143" s="0" t="s">
+      <c r="H143" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="I143" s="0" t="s">
+      <c r="I143" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J143" s="0" t="s">
+      <c r="J143" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K143" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L143" s="2" t="n">
+      <c r="L143" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>10045</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H144" s="0" t="s">
+      <c r="H144" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="I144" s="0" t="s">
+      <c r="I144" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J144" s="0" t="s">
+      <c r="J144" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K144" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L144" s="2" t="n">
+      <c r="L144" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>10046</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F145" s="0" t="s">
+      <c r="F145" s="4" t="s">
         <v>293</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H145" s="0" t="s">
+      <c r="H145" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="I145" s="0" t="s">
+      <c r="I145" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="J145" s="0" t="s">
+      <c r="J145" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K145" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L145" s="2" t="n">
+      <c r="L145" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>10047</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E146" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="F146" s="4" t="s">
         <v>299</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H146" s="0" t="s">
+      <c r="H146" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="I146" s="0" t="s">
+      <c r="I146" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="J146" s="0" t="s">
+      <c r="J146" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K146" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L146" s="2" t="n">
+      <c r="L146" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>10048</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="E147" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F147" s="0" t="s">
+      <c r="F147" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H147" s="0" t="s">
+      <c r="H147" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I147" s="0" t="s">
+      <c r="I147" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J147" s="0" t="s">
+      <c r="J147" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K147" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L147" s="2" t="n">
+      <c r="L147" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>10049</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="E148" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="F148" s="4" t="s">
         <v>311</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H148" s="0" t="s">
+      <c r="H148" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="I148" s="0" t="s">
+      <c r="I148" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="J148" s="0" t="s">
+      <c r="J148" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K148" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L148" s="2" t="n">
+      <c r="L148" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>10050</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="E149" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F149" s="0" t="s">
+      <c r="F149" s="4" t="s">
         <v>317</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H149" s="0" t="s">
+      <c r="H149" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I149" s="0" t="s">
+      <c r="I149" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="J149" s="0" t="s">
+      <c r="J149" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K149" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L149" s="2" t="n">
+      <c r="L149" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>10051</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E150" s="0" t="s">
+      <c r="E150" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F150" s="0" t="s">
+      <c r="F150" s="4" t="s">
         <v>323</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H150" s="0" t="s">
+      <c r="H150" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I150" s="0" t="s">
+      <c r="I150" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J150" s="0" t="s">
+      <c r="J150" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K150" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L150" s="2" t="n">
+      <c r="L150" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>10052</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E151" s="0" t="s">
+      <c r="E151" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F151" s="0" t="s">
+      <c r="F151" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H151" s="0" t="s">
+      <c r="H151" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="I151" s="0" t="s">
+      <c r="I151" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="J151" s="0" t="s">
+      <c r="J151" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K151" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L151" s="2" t="n">
+      <c r="L151" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>10053</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E152" s="0" t="s">
+      <c r="E152" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F152" s="0" t="s">
+      <c r="F152" s="4" t="s">
         <v>335</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H152" s="0" t="s">
+      <c r="H152" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I152" s="0" t="s">
+      <c r="I152" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J152" s="0" t="s">
+      <c r="J152" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K152" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L152" s="2" t="n">
+      <c r="L152" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>10054</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="E153" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F153" s="0" t="s">
+      <c r="F153" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G153" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H153" s="0" t="s">
+      <c r="H153" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I153" s="0" t="s">
+      <c r="I153" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="J153" s="0" t="s">
+      <c r="J153" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K153" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L153" s="2" t="n">
+      <c r="L153" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>10055</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E154" s="0" t="s">
+      <c r="E154" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F154" s="0" t="s">
+      <c r="F154" s="4" t="s">
         <v>347</v>
       </c>
       <c r="G154" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H154" s="0" t="s">
+      <c r="H154" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="I154" s="0" t="s">
+      <c r="I154" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="J154" s="0" t="s">
+      <c r="J154" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K154" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L154" s="2" t="n">
+      <c r="L154" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>10056</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E155" s="0" t="s">
+      <c r="E155" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F155" s="0" t="s">
+      <c r="F155" s="4" t="s">
         <v>353</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H155" s="0" t="s">
+      <c r="H155" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I155" s="0" t="s">
+      <c r="I155" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="J155" s="0" t="s">
+      <c r="J155" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K155" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L155" s="2" t="n">
+      <c r="L155" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>10057</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="E156" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F156" s="0" t="s">
+      <c r="F156" s="4" t="s">
         <v>358</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H156" s="0" t="s">
+      <c r="H156" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I156" s="0" t="s">
+      <c r="I156" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="J156" s="0" t="s">
+      <c r="J156" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K156" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L156" s="2" t="n">
+      <c r="L156" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>10058</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="E157" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F157" s="0" t="s">
+      <c r="F157" s="4" t="s">
         <v>364</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H157" s="0" t="s">
+      <c r="H157" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="I157" s="0" t="s">
+      <c r="I157" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J157" s="0" t="s">
+      <c r="J157" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K157" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L157" s="2" t="n">
+      <c r="L157" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>10059</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" s="4" t="s">
         <v>369</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H158" s="0" t="s">
+      <c r="H158" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="I158" s="0" t="s">
+      <c r="I158" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="J158" s="0" t="s">
+      <c r="J158" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K158" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L158" s="2" t="n">
+      <c r="L158" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>10060</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E159" s="0" t="s">
+      <c r="E159" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="F159" s="4" t="s">
         <v>374</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H159" s="0" t="s">
+      <c r="H159" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I159" s="0" t="s">
+      <c r="I159" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="J159" s="0" t="s">
+      <c r="J159" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K159" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L159" s="2" t="n">
+      <c r="L159" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>10061</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="E160" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" s="4" t="s">
         <v>379</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H160" s="0" t="s">
+      <c r="H160" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="I160" s="0" t="s">
+      <c r="I160" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="J160" s="0" t="s">
+      <c r="J160" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K160" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L160" s="2" t="n">
+      <c r="L160" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>10062</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E161" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F161" s="0" t="s">
+      <c r="F161" s="4" t="s">
         <v>383</v>
       </c>
       <c r="G161" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H161" s="0" t="s">
+      <c r="H161" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="I161" s="0" t="s">
+      <c r="I161" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="J161" s="0" t="s">
+      <c r="J161" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K161" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L161" s="2" t="n">
+      <c r="L161" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>10063</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="E162" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" s="4" t="s">
         <v>388</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H162" s="0" t="s">
+      <c r="H162" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="I162" s="0" t="s">
+      <c r="I162" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="J162" s="0" t="s">
+      <c r="J162" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K162" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L162" s="2" t="n">
+      <c r="L162" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>10064</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F163" s="0" t="s">
+      <c r="F163" s="4" t="s">
         <v>393</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H163" s="0" t="s">
+      <c r="H163" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="I163" s="0" t="s">
+      <c r="I163" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="J163" s="0" t="s">
+      <c r="J163" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K163" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L163" s="2" t="n">
+      <c r="L163" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>10065</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="E164" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" s="4" t="s">
         <v>398</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H164" s="0" t="s">
+      <c r="H164" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I164" s="0" t="s">
+      <c r="I164" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="J164" s="0" t="s">
+      <c r="J164" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K164" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L164" s="2" t="n">
+      <c r="L164" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>10066</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E165" s="0" t="s">
+      <c r="E165" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="F165" s="4" t="s">
         <v>403</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H165" s="0" t="s">
+      <c r="H165" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="I165" s="0" t="s">
+      <c r="I165" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="J165" s="0" t="s">
+      <c r="J165" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K165" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L165" s="2" t="n">
+      <c r="L165" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>10067</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E166" s="0" t="s">
+      <c r="E166" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F166" s="0" t="s">
+      <c r="F166" s="4" t="s">
         <v>408</v>
       </c>
       <c r="G166" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H166" s="0" t="s">
+      <c r="H166" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="I166" s="0" t="s">
+      <c r="I166" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="J166" s="0" t="s">
+      <c r="J166" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K166" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L166" s="2" t="n">
+      <c r="L166" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>10068</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E167" s="0" t="s">
+      <c r="E167" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F167" s="0" t="s">
+      <c r="F167" s="4" t="s">
         <v>413</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H167" s="0" t="s">
+      <c r="H167" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="I167" s="0" t="s">
+      <c r="I167" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="J167" s="0" t="s">
+      <c r="J167" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K167" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L167" s="2" t="n">
+      <c r="L167" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>10069</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E168" s="0" t="s">
+      <c r="E168" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F168" s="0" t="s">
+      <c r="F168" s="4" t="s">
         <v>418</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H168" s="0" t="s">
+      <c r="H168" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="I168" s="0" t="s">
+      <c r="I168" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="J168" s="0" t="s">
+      <c r="J168" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K168" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L168" s="2" t="n">
+      <c r="L168" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>10070</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E169" s="0" t="s">
+      <c r="E169" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F169" s="0" t="s">
+      <c r="F169" s="4" t="s">
         <v>423</v>
       </c>
       <c r="G169" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H169" s="0" t="s">
+      <c r="H169" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="I169" s="0" t="s">
+      <c r="I169" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="J169" s="0" t="s">
+      <c r="J169" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K169" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L169" s="2" t="n">
+      <c r="L169" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>10071</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E170" s="0" t="s">
+      <c r="E170" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="F170" s="4" t="s">
         <v>428</v>
       </c>
       <c r="G170" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H170" s="0" t="s">
+      <c r="H170" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="I170" s="0" t="s">
+      <c r="I170" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="J170" s="0" t="s">
+      <c r="J170" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K170" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L170" s="2" t="n">
+      <c r="L170" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>10072</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="E171" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="F171" s="4" t="s">
         <v>433</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H171" s="0" t="s">
+      <c r="H171" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="I171" s="0" t="s">
+      <c r="I171" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="J171" s="0" t="s">
+      <c r="J171" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K171" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L171" s="2" t="n">
+      <c r="L171" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>10073</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E172" s="0" t="s">
+      <c r="E172" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F172" s="0" t="s">
+      <c r="F172" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H172" s="0" t="s">
+      <c r="H172" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="I172" s="0" t="s">
+      <c r="I172" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="J172" s="0" t="s">
+      <c r="J172" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K172" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L172" s="2" t="n">
+      <c r="L172" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>10074</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E173" s="0" t="s">
+      <c r="E173" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F173" s="0" t="s">
+      <c r="F173" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H173" s="0" t="s">
+      <c r="H173" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="I173" s="0" t="s">
+      <c r="I173" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="J173" s="0" t="s">
+      <c r="J173" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K173" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L173" s="2" t="n">
+      <c r="L173" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>10075</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E174" s="0" t="s">
+      <c r="E174" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F174" s="0" t="s">
+      <c r="F174" s="4" t="s">
         <v>448</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H174" s="0" t="s">
+      <c r="H174" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="I174" s="0" t="s">
+      <c r="I174" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J174" s="0" t="s">
+      <c r="J174" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K174" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L174" s="2" t="n">
+      <c r="L174" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>10076</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E175" s="0" t="s">
+      <c r="E175" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F175" s="0" t="s">
+      <c r="F175" s="4" t="s">
         <v>453</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H175" s="0" t="s">
+      <c r="H175" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="I175" s="0" t="s">
+      <c r="I175" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="J175" s="0" t="s">
+      <c r="J175" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K175" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L175" s="2" t="n">
+      <c r="L175" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>10077</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E176" s="0" t="s">
+      <c r="E176" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="0" t="s">
+      <c r="F176" s="4" t="s">
         <v>458</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H176" s="0" t="s">
+      <c r="H176" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="I176" s="0" t="s">
+      <c r="I176" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="J176" s="0" t="s">
+      <c r="J176" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K176" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L176" s="2" t="n">
+      <c r="L176" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>10078</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E177" s="0" t="s">
+      <c r="E177" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F177" s="0" t="s">
+      <c r="F177" s="4" t="s">
         <v>463</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H177" s="0" t="s">
+      <c r="H177" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="I177" s="0" t="s">
+      <c r="I177" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="J177" s="0" t="s">
+      <c r="J177" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K177" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L177" s="2" t="n">
+      <c r="L177" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>10079</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E178" s="0" t="s">
+      <c r="E178" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F178" s="0" t="s">
+      <c r="F178" s="4" t="s">
         <v>468</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H178" s="0" t="s">
+      <c r="H178" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="I178" s="0" t="s">
+      <c r="I178" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="J178" s="0" t="s">
+      <c r="J178" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K178" s="1" t="n">
         <v>33333</v>
       </c>
-      <c r="L178" s="2" t="n">
+      <c r="L178" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>10080</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E179" s="0" t="s">
+      <c r="E179" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F179" s="0" t="s">
+      <c r="F179" s="4" t="s">
         <v>473</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H179" s="0" t="s">
+      <c r="H179" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="I179" s="0" t="s">
+      <c r="I179" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="J179" s="0" t="s">
+      <c r="J179" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K179" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L179" s="2" t="n">
+      <c r="L179" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>10081</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="E180" s="0" t="s">
+      <c r="E180" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F180" s="0" t="s">
+      <c r="F180" s="4" t="s">
         <v>478</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H180" s="0" t="s">
+      <c r="H180" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="I180" s="0" t="s">
+      <c r="I180" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="J180" s="0" t="s">
+      <c r="J180" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K180" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L180" s="2" t="n">
+      <c r="L180" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>10082</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="E181" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F181" s="0" t="s">
+      <c r="F181" s="4" t="s">
         <v>483</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H181" s="0" t="s">
+      <c r="H181" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="I181" s="0" t="s">
+      <c r="I181" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="J181" s="0" t="s">
+      <c r="J181" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K181" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L181" s="2" t="n">
+      <c r="L181" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>10083</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E182" s="0" t="s">
+      <c r="E182" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F182" s="0" t="s">
+      <c r="F182" s="4" t="s">
         <v>488</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H182" s="0" t="s">
+      <c r="H182" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="I182" s="0" t="s">
+      <c r="I182" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="J182" s="0" t="s">
+      <c r="J182" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K182" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L182" s="2" t="n">
+      <c r="L182" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>10084</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="E183" s="0" t="s">
+      <c r="E183" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F183" s="0" t="s">
+      <c r="F183" s="4" t="s">
         <v>492</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H183" s="0" t="s">
+      <c r="H183" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="I183" s="0" t="s">
+      <c r="I183" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="J183" s="0" t="s">
+      <c r="J183" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K183" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L183" s="2" t="n">
+      <c r="L183" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>10085</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="E184" s="0" t="s">
+      <c r="E184" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F184" s="0" t="s">
+      <c r="F184" s="4" t="s">
         <v>497</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H184" s="0" t="s">
+      <c r="H184" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="I184" s="0" t="s">
+      <c r="I184" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="J184" s="0" t="s">
+      <c r="J184" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K184" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L184" s="2" t="n">
+      <c r="L184" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>10086</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E185" s="0" t="s">
+      <c r="E185" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F185" s="0" t="s">
+      <c r="F185" s="4" t="s">
         <v>502</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H185" s="0" t="s">
+      <c r="H185" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="I185" s="0" t="s">
+      <c r="I185" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="J185" s="0" t="s">
+      <c r="J185" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K185" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L185" s="2" t="n">
+      <c r="L185" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>10087</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="E186" s="0" t="s">
+      <c r="E186" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F186" s="0" t="s">
+      <c r="F186" s="4" t="s">
         <v>507</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H186" s="0" t="s">
+      <c r="H186" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="I186" s="0" t="s">
+      <c r="I186" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="J186" s="0" t="s">
+      <c r="J186" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K186" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L186" s="2" t="n">
+      <c r="L186" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>10088</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E187" s="0" t="s">
+      <c r="E187" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F187" s="0" t="s">
+      <c r="F187" s="4" t="s">
         <v>512</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H187" s="0" t="s">
+      <c r="H187" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="I187" s="0" t="s">
+      <c r="I187" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="J187" s="0" t="s">
+      <c r="J187" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K187" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L187" s="2" t="n">
+      <c r="L187" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>10089</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E188" s="0" t="s">
+      <c r="E188" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F188" s="0" t="s">
+      <c r="F188" s="4" t="s">
         <v>517</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H188" s="0" t="s">
+      <c r="H188" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="I188" s="0" t="s">
+      <c r="I188" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="J188" s="0" t="s">
+      <c r="J188" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K188" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L188" s="2" t="n">
+      <c r="L188" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>10090</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E189" s="0" t="s">
+      <c r="E189" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F189" s="0" t="s">
+      <c r="F189" s="4" t="s">
         <v>522</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H189" s="0" t="s">
+      <c r="H189" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="I189" s="0" t="s">
+      <c r="I189" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="J189" s="0" t="s">
+      <c r="J189" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K189" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L189" s="2" t="n">
+      <c r="L189" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>10091</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="E190" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F190" s="0" t="s">
+      <c r="F190" s="4" t="s">
         <v>527</v>
       </c>
       <c r="G190" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H190" s="0" t="s">
+      <c r="H190" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="I190" s="0" t="s">
+      <c r="I190" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="J190" s="0" t="s">
+      <c r="J190" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K190" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L190" s="2" t="n">
+      <c r="L190" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>10092</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E191" s="0" t="s">
+      <c r="E191" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F191" s="0" t="s">
+      <c r="F191" s="4" t="s">
         <v>532</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H191" s="0" t="s">
+      <c r="H191" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="I191" s="0" t="s">
+      <c r="I191" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="J191" s="0" t="s">
+      <c r="J191" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K191" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L191" s="2" t="n">
+      <c r="L191" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>10093</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="E192" s="0" t="s">
+      <c r="E192" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F192" s="0" t="s">
+      <c r="F192" s="4" t="s">
         <v>537</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H192" s="0" t="s">
+      <c r="H192" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="I192" s="0" t="s">
+      <c r="I192" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="J192" s="0" t="s">
+      <c r="J192" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K192" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L192" s="2" t="n">
+      <c r="L192" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>10094</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="E193" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F193" s="0" t="s">
+      <c r="F193" s="4" t="s">
         <v>542</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H193" s="0" t="s">
+      <c r="H193" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="I193" s="0" t="s">
+      <c r="I193" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="J193" s="0" t="s">
+      <c r="J193" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K193" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L193" s="2" t="n">
+      <c r="L193" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>10095</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="E194" s="0" t="s">
+      <c r="E194" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F194" s="0" t="s">
+      <c r="F194" s="4" t="s">
         <v>547</v>
       </c>
       <c r="G194" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H194" s="0" t="s">
+      <c r="H194" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="I194" s="0" t="s">
+      <c r="I194" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="J194" s="0" t="s">
+      <c r="J194" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K194" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L194" s="2" t="n">
+      <c r="L194" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>10096</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="E195" s="0" t="s">
+      <c r="E195" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F195" s="0" t="s">
+      <c r="F195" s="4" t="s">
         <v>552</v>
       </c>
       <c r="G195" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H195" s="0" t="s">
+      <c r="H195" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="I195" s="0" t="s">
+      <c r="I195" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="J195" s="0" t="s">
+      <c r="J195" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K195" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L195" s="2" t="n">
+      <c r="L195" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>10097</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="E196" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F196" s="0" t="s">
+      <c r="F196" s="4" t="s">
         <v>557</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H196" s="0" t="s">
+      <c r="H196" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="I196" s="0" t="s">
+      <c r="I196" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="J196" s="0" t="s">
+      <c r="J196" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K196" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L196" s="2" t="n">
+      <c r="L196" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>10098</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="E197" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" s="4" t="s">
         <v>562</v>
       </c>
       <c r="G197" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="H197" s="0" t="s">
+      <c r="H197" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="I197" s="0" t="s">
+      <c r="I197" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="J197" s="0" t="s">
+      <c r="J197" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K197" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L197" s="2" t="n">
+      <c r="L197" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_master.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_master.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="570">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">NTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">b2ml28041</t>
@@ -1857,8 +1860,8 @@
   </sheetPr>
   <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L:L"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1940,9 +1943,8 @@
       <c r="K2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,25 +1955,25 @@
         <v>10002</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>19</v>
@@ -1979,9 +1981,8 @@
       <c r="K3" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,25 +1993,25 @@
         <v>10003</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>19</v>
@@ -2018,9 +2019,8 @@
       <c r="K4" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,35 +2031,34 @@
         <v>10004</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,35 +2069,34 @@
         <v>10005</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,35 +2107,34 @@
         <v>10006</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,25 +2145,25 @@
         <v>10007</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>19</v>
@@ -2174,9 +2171,8 @@
       <c r="K8" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,35 +2183,34 @@
         <v>10008</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,35 +2221,34 @@
         <v>10009</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,35 +2259,34 @@
         <v>10010</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,35 +2297,34 @@
         <v>10011</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,35 +2335,34 @@
         <v>10012</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,35 +2373,34 @@
         <v>10013</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,35 +2411,34 @@
         <v>10014</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,35 +2449,34 @@
         <v>10015</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,35 +2487,34 @@
         <v>10016</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,35 +2525,34 @@
         <v>10017</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,35 +2563,34 @@
         <v>10018</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,35 +2601,34 @@
         <v>10019</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,35 +2639,34 @@
         <v>10020</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,25 +2677,25 @@
         <v>10021</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>19</v>
@@ -2720,9 +2703,8 @@
       <c r="K22" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,25 +2715,25 @@
         <v>10022</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>19</v>
@@ -2759,9 +2741,8 @@
       <c r="K23" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L23" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,35 +2753,34 @@
         <v>10023</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,25 +2791,25 @@
         <v>10024</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>19</v>
@@ -2837,9 +2817,8 @@
       <c r="K25" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,35 +2829,34 @@
         <v>10025</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,25 +2867,25 @@
         <v>10026</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>19</v>
@@ -2915,9 +2893,8 @@
       <c r="K27" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L27" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,35 +2905,34 @@
         <v>10027</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L28" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,35 +2943,34 @@
         <v>10028</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L29" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,35 +2981,34 @@
         <v>10029</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L30" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,25 +3019,25 @@
         <v>10030</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>19</v>
@@ -3071,9 +3045,8 @@
       <c r="K31" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L31" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,25 +3057,25 @@
         <v>10031</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>19</v>
@@ -3110,9 +3083,8 @@
       <c r="K32" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L32" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,25 +3095,25 @@
         <v>10032</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>19</v>
@@ -3149,9 +3121,8 @@
       <c r="K33" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L33" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,35 +3133,34 @@
         <v>10033</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,35 +3171,34 @@
         <v>10034</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,35 +3209,34 @@
         <v>10035</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,35 +3247,34 @@
         <v>10036</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,35 +3285,34 @@
         <v>10037</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,35 +3323,34 @@
         <v>10038</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,35 +3361,34 @@
         <v>10039</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,35 +3399,34 @@
         <v>10040</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L41" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,35 +3437,34 @@
         <v>10041</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,35 +3475,34 @@
         <v>10042</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L43" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,35 +3513,34 @@
         <v>10043</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L44" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,35 +3551,34 @@
         <v>10044</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,35 +3589,34 @@
         <v>10045</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L46" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,35 +3627,34 @@
         <v>10046</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L47" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,35 +3665,34 @@
         <v>10047</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L48" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,35 +3703,34 @@
         <v>10048</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K49" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L49" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,35 +3741,34 @@
         <v>10049</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L50" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,35 +3779,34 @@
         <v>10050</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L51" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,35 +3817,34 @@
         <v>10051</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L52" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,35 +3855,34 @@
         <v>10052</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L53" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,35 +3893,34 @@
         <v>10053</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L54" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,35 +3931,34 @@
         <v>10054</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L55" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,25 +3969,25 @@
         <v>10055</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>19</v>
@@ -4046,9 +3995,8 @@
       <c r="K56" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L56" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,25 +4007,25 @@
         <v>10056</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>19</v>
@@ -4085,9 +4033,8 @@
       <c r="K57" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L57" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,25 +4045,25 @@
         <v>10057</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>19</v>
@@ -4124,9 +4071,8 @@
       <c r="K58" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L58" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4137,25 +4083,25 @@
         <v>10058</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>19</v>
@@ -4163,9 +4109,8 @@
       <c r="K59" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L59" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,35 +4121,34 @@
         <v>10059</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L60" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,35 +4159,34 @@
         <v>10060</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L61" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,35 +4197,34 @@
         <v>10061</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L62" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,35 +4235,34 @@
         <v>10062</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L63" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,35 +4273,34 @@
         <v>10063</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L64" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,35 +4311,34 @@
         <v>10064</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L65" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L65" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,35 +4349,34 @@
         <v>10065</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L66" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,35 +4387,34 @@
         <v>10066</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L67" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,35 +4425,34 @@
         <v>10067</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L68" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,35 +4463,34 @@
         <v>10068</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L69" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,35 +4501,34 @@
         <v>10069</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L70" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,35 +4539,34 @@
         <v>10070</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L71" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L71" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,35 +4577,34 @@
         <v>10071</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L72" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L72" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,25 +4615,25 @@
         <v>10072</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>19</v>
@@ -4709,9 +4641,8 @@
       <c r="K73" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L73" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,25 +4653,25 @@
         <v>10073</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>19</v>
@@ -4748,9 +4679,8 @@
       <c r="K74" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L74" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L74" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,25 +4691,25 @@
         <v>10074</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>19</v>
@@ -4787,9 +4717,8 @@
       <c r="K75" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L75" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,25 +4729,25 @@
         <v>10075</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>19</v>
@@ -4826,9 +4755,8 @@
       <c r="K76" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L76" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L76" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,25 +4767,25 @@
         <v>10076</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>19</v>
@@ -4865,9 +4793,8 @@
       <c r="K77" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L77" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L77" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,25 +4805,25 @@
         <v>10077</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>19</v>
@@ -4904,9 +4831,8 @@
       <c r="K78" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L78" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L78" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,25 +4843,25 @@
         <v>10078</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>19</v>
@@ -4943,9 +4869,8 @@
       <c r="K79" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L79" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L79" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,25 +4881,25 @@
         <v>10079</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>19</v>
@@ -4982,9 +4907,8 @@
       <c r="K80" s="1" t="n">
         <v>33333</v>
       </c>
-      <c r="L80" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L80" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,25 +4919,25 @@
         <v>10080</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>19</v>
@@ -5021,9 +4945,8 @@
       <c r="K81" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L81" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L81" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,25 +4957,25 @@
         <v>10081</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>19</v>
@@ -5060,9 +4983,8 @@
       <c r="K82" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L82" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L82" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,25 +4995,25 @@
         <v>10082</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>19</v>
@@ -5099,9 +5021,8 @@
       <c r="K83" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L83" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L83" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,25 +5033,25 @@
         <v>10083</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>19</v>
@@ -5138,9 +5059,8 @@
       <c r="K84" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L84" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L84" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,25 +5071,25 @@
         <v>10084</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>19</v>
@@ -5177,9 +5097,8 @@
       <c r="K85" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L85" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L85" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,25 +5109,25 @@
         <v>10085</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>19</v>
@@ -5216,9 +5135,8 @@
       <c r="K86" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L86" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L86" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,25 +5147,25 @@
         <v>10086</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>19</v>
@@ -5255,9 +5173,8 @@
       <c r="K87" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L87" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L87" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,35 +5185,34 @@
         <v>10087</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L88" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L88" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,35 +5223,34 @@
         <v>10088</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L89" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L89" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,35 +5261,34 @@
         <v>10089</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L90" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L90" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,35 +5299,34 @@
         <v>10090</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L91" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L91" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,35 +5337,34 @@
         <v>10091</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K92" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L92" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L92" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,35 +5375,34 @@
         <v>10092</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K93" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L93" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L93" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,35 +5413,34 @@
         <v>10093</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K94" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L94" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L94" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,35 +5451,34 @@
         <v>10094</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K95" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L95" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L95" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,35 +5489,34 @@
         <v>10095</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K96" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L96" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L96" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,35 +5527,34 @@
         <v>10096</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K97" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L97" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L97" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,35 +5565,34 @@
         <v>10097</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K98" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L98" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L98" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,40 +5603,39 @@
         <v>10098</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K99" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L99" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L99" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>10001</v>
@@ -5762,38 +5667,37 @@
       <c r="K100" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L100" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L100" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>10002</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>19</v>
@@ -5801,38 +5705,37 @@
       <c r="K101" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L101" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L101" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>10003</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>19</v>
@@ -5840,155 +5743,151 @@
       <c r="K102" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L102" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L102" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>10004</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K103" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L103" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L103" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>10005</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="L104" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L104" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>10006</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K105" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L105" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L105" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>10007</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>19</v>
@@ -5996,545 +5895,531 @@
       <c r="K106" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L106" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L106" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>10008</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K107" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L107" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L107" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>10009</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G108" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="K108" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L108" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L108" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>10010</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K109" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L109" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L109" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>10011</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K110" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L110" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L110" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>10012</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K111" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="L111" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L111" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>10013</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K112" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L112" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L112" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>10014</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G113" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="K113" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="L113" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L113" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>10015</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K114" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L114" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L114" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>10016</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K115" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="L115" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L115" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>10017</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K116" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L116" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L116" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>10018</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J117" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G117" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="K117" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="L117" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L117" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>10019</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K118" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L118" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L118" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>10020</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K119" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="L119" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L119" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>10021</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>19</v>
@@ -6542,38 +6427,37 @@
       <c r="K120" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L120" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L120" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>10022</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>19</v>
@@ -6581,77 +6465,75 @@
       <c r="K121" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L121" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L121" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>10023</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K122" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="L122" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L122" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>10024</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>19</v>
@@ -6659,77 +6541,75 @@
       <c r="K123" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="L123" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L123" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>10025</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K124" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L124" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L124" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>10026</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>19</v>
@@ -6737,155 +6617,151 @@
       <c r="K125" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L125" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L125" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>10027</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K126" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L126" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L126" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>10028</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K127" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="L127" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L127" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>10029</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K128" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="L128" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L128" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>10030</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>19</v>
@@ -6893,38 +6769,37 @@
       <c r="K129" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L129" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L129" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>10031</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>19</v>
@@ -6932,38 +6807,37 @@
       <c r="K130" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L130" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L130" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>10032</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>19</v>
@@ -6971,896 +6845,873 @@
       <c r="K131" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L131" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L131" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>10033</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K132" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L132" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L132" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>10034</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K133" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L133" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L133" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>10035</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K134" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L134" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L134" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>10036</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K135" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L135" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L135" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>10037</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K136" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L136" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L136" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>10038</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K137" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L137" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L137" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>10039</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K138" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L138" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L138" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>10040</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K139" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L139" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L139" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>10041</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K140" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L140" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L140" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>10042</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K141" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L141" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L141" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>10043</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K142" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L142" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L142" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>10044</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K143" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L143" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L143" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>10045</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K144" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L144" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L144" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>10046</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K145" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L145" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L145" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>10047</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K146" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L146" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L146" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>10048</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K147" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L147" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L147" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>10049</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K148" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L148" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L148" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>10050</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K149" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L149" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L149" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>10051</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K150" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L150" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L150" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>10052</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K151" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L151" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L151" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>10053</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K152" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L152" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L152" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>10054</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G153" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K153" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="L153" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L153" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>10055</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G154" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>19</v>
@@ -7868,38 +7719,37 @@
       <c r="K154" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L154" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L154" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>10056</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>19</v>
@@ -7907,38 +7757,37 @@
       <c r="K155" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L155" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L155" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>10057</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>19</v>
@@ -7946,38 +7795,37 @@
       <c r="K156" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L156" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L156" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>10058</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>19</v>
@@ -7985,545 +7833,531 @@
       <c r="K157" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="L157" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L157" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>10059</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K158" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L158" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L158" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>10060</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K159" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L159" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L159" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>10061</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K160" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L160" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L160" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>10062</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G161" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K161" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L161" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L161" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>10063</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K162" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L162" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L162" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>10064</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K163" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L163" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L163" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>10065</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K164" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L164" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L164" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>10066</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K165" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L165" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L165" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>10067</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G166" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K166" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L166" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L166" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>10068</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K167" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L167" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L167" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>10069</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K168" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L168" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L168" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>10070</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G169" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K169" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L169" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L169" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>10071</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G170" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K170" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L170" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L170" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>10072</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>19</v>
@@ -8531,38 +8365,37 @@
       <c r="K171" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L171" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L171" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>10073</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>19</v>
@@ -8570,38 +8403,37 @@
       <c r="K172" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L172" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L172" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>10074</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>19</v>
@@ -8609,38 +8441,37 @@
       <c r="K173" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L173" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L173" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>10075</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>19</v>
@@ -8648,38 +8479,37 @@
       <c r="K174" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L174" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L174" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>10076</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>19</v>
@@ -8687,38 +8517,37 @@
       <c r="K175" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L175" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L175" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>10077</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>19</v>
@@ -8726,38 +8555,37 @@
       <c r="K176" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L176" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L176" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>10078</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>19</v>
@@ -8765,38 +8593,37 @@
       <c r="K177" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L177" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L177" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>10079</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>19</v>
@@ -8804,38 +8631,37 @@
       <c r="K178" s="1" t="n">
         <v>33333</v>
       </c>
-      <c r="L178" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L178" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>10080</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J179" s="4" t="s">
         <v>19</v>
@@ -8843,38 +8669,37 @@
       <c r="K179" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L179" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L179" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>10081</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J180" s="4" t="s">
         <v>19</v>
@@ -8882,38 +8707,37 @@
       <c r="K180" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L180" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L180" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>10082</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>19</v>
@@ -8921,38 +8745,37 @@
       <c r="K181" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L181" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L181" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>10083</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J182" s="4" t="s">
         <v>19</v>
@@ -8960,594 +8783,578 @@
       <c r="K182" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L182" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L182" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>10084</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K183" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L183" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L183" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>10085</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K184" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="L184" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L184" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>10086</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K185" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="L185" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L185" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>10087</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K186" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L186" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L186" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>10088</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K187" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L187" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L187" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>10089</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K188" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L188" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L188" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>10090</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K189" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L189" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L189" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>10091</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G190" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K190" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L190" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L190" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>10092</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K191" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L191" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L191" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>10093</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K192" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L192" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L192" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>10094</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K193" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L193" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L193" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>10095</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G194" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K194" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L194" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L194" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>10096</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G195" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K195" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L195" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L195" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>10097</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K196" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L196" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L196" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>10098</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G197" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K197" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="L197" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="L197" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
